--- a/biology/Zoologie/Bézoule/Bézoule.xlsx
+++ b/biology/Zoologie/Bézoule/Bézoule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9zoule</t>
+          <t>Bézoule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coregonus bezola
 La Bézoule (Coregonus bezola) est une espèce de poissons actinoptérygiens de la famille des Salmonidae. Elle est aujourd'hui éteinte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9zoule</t>
+          <t>Bézoule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corégone pouvait mesurer 32 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corégone pouvait mesurer 32 cm de long.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9zoule</t>
+          <t>Bézoule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Localisation du lac du Bourget dans la région historique de Savoie.
-Ce poisson d'eau douce était endémique du lac du Bourget, dans le département de Savoie, dans la région Auvergne-Rhône-Alpes, en France[1],[2].
+Ce poisson d'eau douce était endémique du lac du Bourget, dans le département de Savoie, dans la région Auvergne-Rhône-Alpes, en France,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9zoule</t>
+          <t>Bézoule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms vernaculaires attestés en français sont « bézoule »[1],[note 1], « bézole » et « corégone du Bourget », mais ils ont pu être utilisés pour désigner d'autres espèces de corégone[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms vernaculaires attestés en français sont « bézoule »,[note 1], « bézole » et « corégone du Bourget », mais ils ont pu être utilisés pour désigner d'autres espèces de corégone,.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9zoule</t>
+          <t>Bézoule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en 1888 par le zoologiste suisse Victor Fatio[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1888 par le zoologiste suisse Victor Fatio.
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9zoule</t>
+          <t>Bézoule</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,11 +658,13 @@
           <t>La Bézoule et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Bézoule est considérée comme une « espèce éteinte » par la liste rouge de l'UICN, où elle y est listée depuis 2008[6].
-Elle aurait disparu dans les années 1960, bien que les dernières mentions confirmées datent de la fin du XIXe siècle[1],[3]. Ceci au même titre que d'autres espèces de corégones endémiques des lacs glaciaires des Alpes occidentales, comme la Féra du Léman (Coregonus fera), la Gravenche (C. hiemalis) ou la Bondelle (C. oxyrinchus)[3],[4],[note 2].
-Elle a été souvent confondue avec le Lavaret (C. lavaretus), une autre espèce indigène du lac du Bourget et qui est présent dans de nombreux autres lacs alpins (en)[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bézoule est considérée comme une « espèce éteinte » par la liste rouge de l'UICN, où elle y est listée depuis 2008.
+Elle aurait disparu dans les années 1960, bien que les dernières mentions confirmées datent de la fin du XIXe siècle,. Ceci au même titre que d'autres espèces de corégones endémiques des lacs glaciaires des Alpes occidentales, comme la Féra du Léman (Coregonus fera), la Gravenche (C. hiemalis) ou la Bondelle (C. oxyrinchus)[note 2].
+Elle a été souvent confondue avec le Lavaret (C. lavaretus), une autre espèce indigène du lac du Bourget et qui est présent dans de nombreux autres lacs alpins (en).
 </t>
         </is>
       </c>
